--- a/SpMVC_ShopV2/쇼핑몰 테이블명세 양식.xlsx
+++ b/SpMVC_ShopV2/쇼핑몰 테이블명세 양식.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보 테이블명세" sheetId="2" r:id="rId1"/>
     <sheet name="거래처정보 테이블명세" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,6 +306,54 @@
   </si>
   <si>
     <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1' 이면 사용하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열혀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(255)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H11"/>
+    <sheetView showGridLines="0" topLeftCell="D4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1941,16 +1988,28 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -2092,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2909,7 +2968,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -2931,7 +2990,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2948,13 +3007,13 @@
         <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -2971,13 +3030,13 @@
         <v>60</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3013,11 +3072,21 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3146,12 +3215,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
